--- a/original_data/知网指数.xlsx
+++ b/original_data/知网指数.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12300"/>
+    <workbookView windowWidth="27795" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,8 +38,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -59,14 +59,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -80,9 +125,55 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -96,17 +187,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,88 +201,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -229,31 +229,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,43 +379,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,85 +391,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,38 +408,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -468,12 +438,51 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -493,162 +502,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1007,10 +1007,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -1034,171 +1034,188 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B2" s="1">
-        <v>222</v>
+        <v>164</v>
       </c>
       <c r="C2" s="1">
-        <v>11030</v>
+        <v>10194</v>
       </c>
       <c r="D2" s="1">
-        <v>2080</v>
+        <v>2054</v>
       </c>
       <c r="E2" s="1">
-        <v>1786</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B3" s="1">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="C3" s="1">
-        <v>11426</v>
+        <v>11030</v>
       </c>
       <c r="D3" s="1">
-        <v>2485</v>
+        <v>2080</v>
       </c>
       <c r="E3" s="1">
-        <v>1811</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B4" s="1">
-        <v>244</v>
+        <v>199</v>
       </c>
       <c r="C4" s="1">
-        <v>11811</v>
+        <v>11426</v>
       </c>
       <c r="D4" s="1">
-        <v>3926</v>
+        <v>2485</v>
       </c>
       <c r="E4" s="1">
-        <v>2179</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B5" s="1">
-        <v>633</v>
+        <v>244</v>
       </c>
       <c r="C5" s="1">
-        <v>12402</v>
+        <v>11811</v>
       </c>
       <c r="D5" s="1">
-        <v>8153</v>
+        <v>3926</v>
       </c>
       <c r="E5" s="1">
-        <v>2834</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B6" s="1">
-        <v>1048</v>
+        <v>633</v>
       </c>
       <c r="C6" s="1">
-        <v>13088</v>
+        <v>12402</v>
       </c>
       <c r="D6" s="1">
-        <v>14268</v>
+        <v>8153</v>
       </c>
       <c r="E6" s="1">
-        <v>6161</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B7" s="1">
-        <v>1776</v>
+        <v>1048</v>
       </c>
       <c r="C7" s="1">
-        <v>14540</v>
+        <v>13088</v>
       </c>
       <c r="D7" s="1">
-        <v>18136</v>
+        <v>14268</v>
       </c>
       <c r="E7" s="1">
-        <v>10195</v>
+        <v>6161</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B8" s="1">
-        <v>1857</v>
+        <v>1776</v>
       </c>
       <c r="C8" s="1">
-        <v>16773</v>
+        <v>14540</v>
       </c>
       <c r="D8" s="1">
-        <v>18635</v>
+        <v>18136</v>
       </c>
       <c r="E8" s="1">
-        <v>13356</v>
+        <v>10195</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B9" s="1">
-        <v>1792</v>
+        <v>1857</v>
       </c>
       <c r="C9" s="1">
-        <v>18459</v>
+        <v>16773</v>
       </c>
       <c r="D9" s="1">
-        <v>17656</v>
+        <v>18635</v>
       </c>
       <c r="E9" s="1">
-        <v>15913</v>
+        <v>13356</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B10" s="1">
-        <v>1684</v>
+        <v>1792</v>
       </c>
       <c r="C10" s="1">
-        <v>20452</v>
+        <v>18459</v>
       </c>
       <c r="D10" s="1">
-        <v>15660</v>
+        <v>17656</v>
       </c>
       <c r="E10" s="1">
-        <v>17137</v>
+        <v>15913</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1684</v>
+      </c>
+      <c r="C11" s="1">
+        <v>20452</v>
+      </c>
+      <c r="D11" s="1">
+        <v>15660</v>
+      </c>
+      <c r="E11" s="1">
+        <v>17137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
         <v>2023</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B12" s="1">
         <v>2571</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C12" s="1">
         <v>23938</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D12" s="1">
         <v>20966</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E12" s="1">
         <v>21964</v>
       </c>
     </row>
